--- a/LLD.xlsx
+++ b/LLD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jobs4\Intellij\PrepTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188CC61B-C0E6-4A2D-B8C4-611C6E90C83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4090911B-FAC3-404B-B29F-990BAE0A468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC65BCF-6B0B-4691-A374-E716F295FFA4}"/>
   </bookViews>
@@ -34,21 +34,163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">Topic </t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Notification System</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>URL Shortner</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t xml:space="preserve">LLD Topic </t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Deep Dive</t>
+  </si>
+  <si>
+    <t>With Extensions/Additional Requirements</t>
+  </si>
+  <si>
+    <t>Amazon Cart System</t>
+  </si>
+  <si>
+    <t>Book My Show</t>
+  </si>
+  <si>
+    <t>Cab Booking System</t>
+  </si>
+  <si>
+    <t>Elevator System</t>
+  </si>
+  <si>
+    <t>File Storage System</t>
+  </si>
+  <si>
+    <t>Inventory Management System</t>
+  </si>
+  <si>
+    <t>Logger System</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Message Queue or Event Bus</t>
+  </si>
+  <si>
+    <t>Multiplayer Chess</t>
+  </si>
+  <si>
+    <t>Notifications System</t>
+  </si>
+  <si>
+    <t>Parking Lot</t>
+  </si>
+  <si>
+    <t>Rate Limiter</t>
+  </si>
+  <si>
+    <t>Redis In Memory Key Value Store</t>
+  </si>
+  <si>
+    <t>Search Auto Complete System</t>
+  </si>
+  <si>
+    <t>Split Wise</t>
+  </si>
+  <si>
+    <t>Thread Pool Executer</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Scheduler / Cron Engine
+</t>
+  </si>
+  <si>
+    <t>Repeating jobs, retry logic, failure tracking
+Common in large internal tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit Breaker + Retry Pattern
+</t>
+  </si>
+  <si>
+    <t>Core in fault-tolerant microservices (e.g., Resilience4j pattern)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit Logging System
+</t>
+  </si>
+  <si>
+    <t>Append-only, tamper-proof log model
+Often used in finance, compliance, and observability systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producer-Consumer Queue with Blocking Behavior
+</t>
+  </si>
+  <si>
+    <t>Variants with Bounded Queue, Deadlock avoidance
+Microsoft loves threading &amp; synchronization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Execution Engine
+</t>
+  </si>
+  <si>
+    <t>Manages jobs with priorities and resource constraints
+Think thread-safe, queue-based execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalable Storage &amp; Indexing
+</t>
+  </si>
+  <si>
+    <t>Mini Database (In-Memory or File-Backed)
+Supports basic CRUD + index/search
+Bonus: Add TTL or durability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trie-Based Word Dictionary / Prefix Match API
+</t>
+  </si>
+  <si>
+    <t>Very common follow-up in autocomplete/search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tic Tac Toe or Snake Game (Multiplayer or AI)
+</t>
+  </si>
+  <si>
+    <t>Demonstrates OOP + state modeling + extensibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloom Filter / Probabilistic Data Structures
+</t>
+  </si>
+  <si>
+    <t>Used for spam filtering, caching, or set membership checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Interview Scheduler / Calendar Booking
+</t>
+  </si>
+  <si>
+    <t>Google/Microsoft-style scheduling conflict system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugin-based Architecture (Extensible Logger / Rules Engine)
+</t>
+  </si>
+  <si>
+    <t>Demonstrates open/closed principle &amp; dependency inversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workflow Orchestration System
+</t>
+  </si>
+  <si>
+    <t>Model a system like Airflow or Step Functions
+DAGs, task execution, rollback, status tracking</t>
   </si>
 </sst>
 </file>
@@ -92,10 +234,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,42 +557,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B1DFE-1CFF-42B4-A26F-49FC90DF550F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B38" sqref="B36:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="1" max="2" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LLD.xlsx
+++ b/LLD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jobs4\Intellij\PrepTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4090911B-FAC3-404B-B29F-990BAE0A468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A18620-28BA-45D0-A64F-B474361E6665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC65BCF-6B0B-4691-A374-E716F295FFA4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">LLD Topic </t>
   </si>
@@ -189,8 +189,97 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Object-Oriented Design Principles (OOP)</t>
+  </si>
+  <si>
+    <t>Abstraction Encapsulation Inheritance Polymorphism. Be able to explain and use each principle in your design classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLID Principles
+</t>
+  </si>
+  <si>
+    <t>S – Single Responsibility Principle
+O – Open/Closed Principle
+L – Liskov Substitution Principle
+I – Interface Segregation Principle
+D – Dependency Inversion Principle
+These are must-know for Microsoft — they're looking for clean, modular design.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design Patterns (Gang of Four)</t>
+  </si>
+  <si>
+    <t>Start with these 10 core patterns (can be used in almost any system):
+Creational:
+ Singleton
+ Factory Method
+ Builder
+Structural:
+  Adapter
+  Decorator
+  Composite
+Behavioral:
+  Strategy
+  Observer
+  Command
+  Template Method
+Be able to code, explain, and apply these with real-world examples.</t>
+  </si>
+  <si>
+    <t>Class Design Best Practices</t>
+  </si>
+  <si>
+    <t>UML &amp; Class Diagram Basics</t>
+  </si>
+  <si>
+    <t>Concurrency Basics for LLD</t>
+  </si>
+  <si>
+    <t>Thread safety (synchronization, locking)
+Producer-consumer model
+BlockingQueue / ThreadPool
+Immutability in multi-threaded design</t>
+  </si>
+  <si>
+    <t>Testability &amp; Extensibility</t>
+  </si>
+  <si>
+    <t>How to make code testable (e.g., using interfaces)
+Dependency injection / inversion
+Open/closed design with plugins or strategy pattern</t>
+  </si>
+  <si>
+    <t>Basic Design Exercises</t>
+  </si>
+  <si>
+    <t>Interface vs Abstract Class
+Composition over Inheritance
+Favor immutability
+Separation of concerns
+Aggregation vs Association vs Composition</t>
+  </si>
+  <si>
+    <t>How to sketch:
+  Classes and relationships
+  Associations (1:1, 1:N, N:N)
+Inheritance
+Interfaces and dependencies</t>
+  </si>
+  <si>
+    <t>Start with small ones:
+  Design a Stack using Queues
+  Design a Logger
+  Design a Tic Tac Toe
+  Design a Rate Limiter
+  Design an In-memory key-value store</t>
+  </si>
+  <si>
     <t>Model a system like Airflow or Step Functions
 DAGs, task execution, rollback, status tracking</t>
+  </si>
+  <si>
+    <t>Examples</t>
   </si>
 </sst>
 </file>
@@ -234,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,6 +331,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,17 +649,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B1DFE-1CFF-42B4-A26F-49FC90DF550F}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B36:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="41.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -588,185 +681,261 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>45</v>
+      <c r="B41" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/LLD.xlsx
+++ b/LLD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jobs4\Intellij\PrepTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A18620-28BA-45D0-A64F-B474361E6665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E10096-8768-434E-A34F-228EAB52B6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC65BCF-6B0B-4691-A374-E716F295FFA4}"/>
   </bookViews>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B1DFE-1CFF-42B4-A26F-49FC90DF550F}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
